--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-980522.4445257635</v>
+        <v>-936776.3165233674</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17424043.67672896</v>
+        <v>16750879.87194064</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9893458.903565716</v>
+        <v>9896993.041683054</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>364.0727818265897</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>334.930427492806</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.22625797330137</v>
+        <v>95.48353436588881</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>428.2210218768698</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -959,7 +959,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>267.7357237463023</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,7 +1111,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>415.9028685635702</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>113.4419073893309</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>125.1714207650378</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>36.97456092088945</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>169.6712868413738</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>199.1362892344166</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1768,19 +1768,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,13 +1822,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>225.1682050991884</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>190.5122932219859</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112168</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978583</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U19" t="n">
-        <v>136.0564930767031</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,22 +2716,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>109.1426757626845</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225572</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934465</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762359</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>267.8502427095265</v>
+        <v>35.5167825707945</v>
       </c>
       <c r="W34" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D37" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432308</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934455</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T37" t="n">
         <v>227.1849416185819</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742933144</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432291</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934451</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>550.6055673650617</v>
+        <v>902.1034202344325</v>
       </c>
       <c r="C2" t="n">
-        <v>516.503498588889</v>
+        <v>868.0013514582599</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>432.0915666327044</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>402.3572258314036</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>34.60694115808062</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>34.60694115808062</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>34.60694115808062</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.60694115808062</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>462.8678379893283</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>891.1287348205759</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>891.1287348205759</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>891.1287348205759</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>891.1287348205759</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>891.1287348205759</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.932096319727</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1561.192993150974</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>1730.347057904031</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1730.347057904031</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1730.347057904031</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1730.347057904031</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1730.347057904031</v>
       </c>
       <c r="W2" t="n">
-        <v>996.2529168901973</v>
+        <v>1325.491603315064</v>
       </c>
       <c r="X2" t="n">
-        <v>981.150857509912</v>
+        <v>1310.389543934779</v>
       </c>
       <c r="Y2" t="n">
-        <v>572.8647338095655</v>
+        <v>902.1034202344325</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>573.2790414165149</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>466.8225802531572</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>371.7322913997104</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>277.6118767266641</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>194.2280383428258</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>108.8429486090096</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>67.1072964252221</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>93.17096958567971</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>417.729294551892</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>417.729294551892</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>417.729294551892</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>417.729294551892</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>417.729294551892</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>756.652486147196</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1184.913382978444</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1613.174279809691</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1730.347057904031</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1666.891620352414</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1536.712976683016</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1360.376429682984</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1161.258911744983</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>975.9361574781774</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>821.0687217170573</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>694.5829424962781</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.2692770611121</v>
+        <v>529.3750829532923</v>
       </c>
       <c r="C4" t="n">
-        <v>87.707565544337</v>
+        <v>529.3750829532923</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>432.9270684422935</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>263.1690646930308</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>263.1690646930308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>263.1690646930308</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>123.2668903834053</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>34.60694115808062</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>34.60694115808062</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>309.3653957292162</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>727.5752774971772</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1155.836174328425</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1310.67780867825</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1730.347057904031</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1730.347057904031</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>1730.347057904031</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1730.347057904031</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1571.105689202028</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1325.226242780483</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1046.793242033588</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>1046.793242033588</v>
       </c>
       <c r="W4" t="n">
-        <v>733.0807024135913</v>
+        <v>774.7668376198799</v>
       </c>
       <c r="X4" t="n">
-        <v>487.6889477470038</v>
+        <v>529.3750829532923</v>
       </c>
       <c r="Y4" t="n">
-        <v>260.2692770611121</v>
+        <v>529.3750829532923</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>977.6515424412072</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>855.2769502042993</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>450.4214956153326</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>179.9813706190676</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1403.951112926115</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1651.155530857073</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.013058040496</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>777.1032732149406</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>356.9993655749706</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>333.1723400245824</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>333.1723400245824</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>44.04218546779867</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>43.62539609493868</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.8800835478565</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1018.744360222723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>1018.744360222723</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1018.744360222723</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>1018.744360222723</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="O8" t="n">
-        <v>1558.608636897589</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P8" t="n">
-        <v>1641.405528072068</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2181.269804746934</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2181.269804746934</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2097.617930930771</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2097.617930930771</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2097.617930930771</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2097.617930930771</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>2096.802880382208</v>
+        <v>1713.566561313561</v>
       </c>
       <c r="X8" t="n">
-        <v>2081.700821001923</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y8" t="n">
-        <v>2077.45510134198</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.7971410862315</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.3406799228737</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.250391069427</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.1299763963807</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7461380125423</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.3610482787262</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.62539609493868</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.68906925539629</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.2473942216086</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>394.2473942216086</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="L9" t="n">
-        <v>394.2473942216086</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="M9" t="n">
-        <v>394.2473942216086</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="N9" t="n">
-        <v>394.2473942216086</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="O9" t="n">
-        <v>509.9638261296756</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.828102804542</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.692379479408</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.865157573748</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.409720022131</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.231076352732</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.894529352701</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.7770114147</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.4542571478939</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.5868213867739</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.1010421659946</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1076.557623740588</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C10" t="n">
-        <v>950.1218451900451</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D10" t="n">
-        <v>784.2438523915678</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E10" t="n">
-        <v>614.485848642305</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F10" t="n">
-        <v>437.7787946040611</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G10" t="n">
-        <v>272.1875196298888</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H10" t="n">
-        <v>132.2853453202633</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>43.62539609493868</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>43.62539609493868</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>94.141109444292</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>512.350991212253</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>971.8348583931661</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1414.093661550811</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1833.762910776592</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2181.269804746934</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2181.269804746934</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2159.851983452306</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2159.851983452306</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1913.972537030761</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.539536283866</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V10" t="n">
-        <v>1348.584028154297</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>1076.557623740588</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X10" t="n">
-        <v>1076.557623740588</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y10" t="n">
-        <v>1076.557623740588</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.4780253056655</v>
+        <v>2294.193217903701</v>
       </c>
       <c r="C11" t="n">
-        <v>822.4780253056655</v>
+        <v>1856.050745087124</v>
       </c>
       <c r="D11" t="n">
-        <v>822.4780253056655</v>
+        <v>1420.140960261569</v>
       </c>
       <c r="E11" t="n">
-        <v>785.129983971433</v>
+        <v>986.3662154198637</v>
       </c>
       <c r="F11" t="n">
-        <v>357.2625543806409</v>
+        <v>558.4987858290715</v>
       </c>
       <c r="G11" t="n">
-        <v>357.2625543806409</v>
+        <v>387.1136476054616</v>
       </c>
       <c r="H11" t="n">
-        <v>68.13239982385714</v>
+        <v>97.98349304867784</v>
       </c>
       <c r="I11" t="n">
-        <v>68.13239982385714</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J11" t="n">
-        <v>503.387087276775</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K11" t="n">
-        <v>503.387087276775</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L11" t="n">
-        <v>1019.518817827577</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M11" t="n">
-        <v>1862.657265647809</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N11" t="n">
-        <v>1862.657265647809</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O11" t="n">
-        <v>1862.657265647809</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P11" t="n">
-        <v>2690.967140481206</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q11" t="n">
-        <v>3237.4659264398</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R11" t="n">
-        <v>3406.619991192857</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S11" t="n">
-        <v>3322.968117376694</v>
+        <v>4794.683309974729</v>
       </c>
       <c r="T11" t="n">
-        <v>3102.900890249733</v>
+        <v>4574.616082847768</v>
       </c>
       <c r="U11" t="n">
-        <v>2843.678587566749</v>
+        <v>4315.393780164784</v>
       </c>
       <c r="V11" t="n">
-        <v>2481.061637500576</v>
+        <v>3952.776830098611</v>
       </c>
       <c r="W11" t="n">
-        <v>2076.206182911609</v>
+        <v>3547.921375509644</v>
       </c>
       <c r="X11" t="n">
-        <v>1657.06371949092</v>
+        <v>3128.778912088955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1248.777595790573</v>
+        <v>2720.492788388608</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574.3041448151499</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C12" t="n">
-        <v>467.8476836517922</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D12" t="n">
-        <v>372.7573947983455</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E12" t="n">
-        <v>278.6369801252992</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F12" t="n">
-        <v>195.2531417414608</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G12" t="n">
-        <v>109.8680520076447</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H12" t="n">
-        <v>68.13239982385714</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19607298431475</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J12" t="n">
-        <v>418.754397950527</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K12" t="n">
-        <v>418.754397950527</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L12" t="n">
-        <v>418.754397950527</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M12" t="n">
-        <v>418.754397950527</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N12" t="n">
-        <v>418.754397950527</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O12" t="n">
-        <v>418.754397950527</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P12" t="n">
-        <v>1073.460444576251</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.199383208326</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R12" t="n">
-        <v>1731.372161302666</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S12" t="n">
-        <v>1667.916723751049</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T12" t="n">
-        <v>1537.738080081651</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U12" t="n">
-        <v>1361.401533081619</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.284015143618</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W12" t="n">
-        <v>976.9612608768123</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0938251156923</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y12" t="n">
-        <v>695.6080458949131</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>918.6284369007885</v>
+        <v>1011.033589313527</v>
       </c>
       <c r="C13" t="n">
-        <v>746.0667253840134</v>
+        <v>838.4718777967518</v>
       </c>
       <c r="D13" t="n">
-        <v>580.1887325855361</v>
+        <v>672.5938849982745</v>
       </c>
       <c r="E13" t="n">
-        <v>410.4307288362733</v>
+        <v>502.8358812490118</v>
       </c>
       <c r="F13" t="n">
-        <v>233.7236747980295</v>
+        <v>326.128827210768</v>
       </c>
       <c r="G13" t="n">
-        <v>68.13239982385714</v>
+        <v>326.128827210768</v>
       </c>
       <c r="H13" t="n">
-        <v>68.13239982385714</v>
+        <v>186.2266529011425</v>
       </c>
       <c r="I13" t="n">
-        <v>68.13239982385767</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J13" t="n">
-        <v>154.7120849885475</v>
+        <v>184.1463888405077</v>
       </c>
       <c r="K13" t="n">
-        <v>429.4705395596831</v>
+        <v>458.9048434116433</v>
       </c>
       <c r="L13" t="n">
-        <v>847.6804213276441</v>
+        <v>877.1147251796043</v>
       </c>
       <c r="M13" t="n">
-        <v>1307.164288508557</v>
+        <v>1336.598592360517</v>
       </c>
       <c r="N13" t="n">
-        <v>1749.423091666202</v>
+        <v>1778.857395518162</v>
       </c>
       <c r="O13" t="n">
-        <v>2169.092340891983</v>
+        <v>2198.526644743943</v>
       </c>
       <c r="P13" t="n">
-        <v>2516.599234862325</v>
+        <v>2546.033538714285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2684.792009726657</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="R13" t="n">
-        <v>2684.792009726657</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="S13" t="n">
-        <v>2666.552840683973</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="T13" t="n">
-        <v>2420.673394262428</v>
+        <v>2513.078546675166</v>
       </c>
       <c r="U13" t="n">
-        <v>2142.240393515533</v>
+        <v>2234.645545928271</v>
       </c>
       <c r="V13" t="n">
-        <v>1855.284885385963</v>
+        <v>1947.690037798702</v>
       </c>
       <c r="W13" t="n">
-        <v>1583.258480972255</v>
+        <v>1675.663633384993</v>
       </c>
       <c r="X13" t="n">
-        <v>1337.866726305667</v>
+        <v>1430.271878718406</v>
       </c>
       <c r="Y13" t="n">
-        <v>1110.447055619776</v>
+        <v>1202.852208032514</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5282,25 +5282,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722817</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>864.7097725347917</v>
+        <v>849.8497331100115</v>
       </c>
       <c r="C16" t="n">
-        <v>692.1480610180166</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="D16" t="n">
-        <v>526.2700682195393</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E16" t="n">
-        <v>356.5120644702766</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F16" t="n">
-        <v>356.5120644702766</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5437,7 +5437,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173567</v>
+        <v>1786.506181595186</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1514.479777181478</v>
       </c>
       <c r="X16" t="n">
-        <v>1283.948061939671</v>
+        <v>1269.08802251489</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.528391253779</v>
+        <v>1041.668351828999</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771604</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004243</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,28 +5513,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5555,10 +5555,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477078</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309328</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324555</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831927</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.8521152449518</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962452</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832883</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419174</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.995166752587</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066695</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
         <v>614.3171730324584</v>
@@ -5935,10 +5935,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
         <v>2176.368833962455</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6388,10 +6388,10 @@
         <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745666</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
         <v>1783.551532113124</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6646,10 +6646,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130896</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.801834709352</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
         <v>2176.368833962455</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666414</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.167761876911</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825366</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298639</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,19 +6944,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1066.521048992527</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886295</v>
+        <v>910.3590448886283</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030282</v>
+        <v>760.8807595030271</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666405</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412736</v>
+        <v>447.2151165412728</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799774</v>
+        <v>298.0235489799766</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>174.5210820832272</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>204.9138786708293</v>
       </c>
       <c r="K37" t="n">
         <v>495.7456864773249</v>
@@ -7114,31 +7114,31 @@
         <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.64750088558</v>
+        <v>2699.647500885579</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.167761876911</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825367</v>
+        <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1241.939960298638</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,25 +7178,25 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428596</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463113</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850152</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7354,28 +7354,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="41">
@@ -7400,37 +7400,37 @@
         <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197257</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581808</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
         <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>931.9169956339958</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2006.976961886855</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M41" t="n">
-        <v>2006.976961886855</v>
+        <v>2524.219518297465</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2524.219518297465</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3504.399184867771</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4332.709059701167</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936664</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080651</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716785</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463108</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850146</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882652</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581785</v>
@@ -7585,10 +7585,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579744</v>
@@ -7600,19 +7600,19 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197256</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
         <v>97.56670367581785</v>
@@ -7646,19 +7646,19 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>931.9169956339958</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
         <v>3334.372458245845</v>
@@ -7673,25 +7673,25 @@
         <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7831,25 +7831,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>244.2458196961119</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>342.3466581770747</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>432.5867644760077</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>156.4056912624492</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>545.3174511867335</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>545.3174511867335</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>83.63322340856462</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.3174511867335</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>112.1603739174597</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>116.8852847556233</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>545.3174511867335</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.3174511867335</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>51.02597308015487</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8690,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>521.3451823745477</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>851.6549977982143</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10592,22 +10592,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-2.962303088553293e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>350.72306039261</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>551.1374990805307</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>350.72306039261</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>102.9895284571467</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>59.51597346829459</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,19 +22705,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>68.73567850460371</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>392.4624364723983</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>227.7125662215949</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>44.28436272291265</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>58.91774794908548</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>52.42554389793579</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-8.546820464652765e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U19" t="n">
-        <v>139.5921776627226</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>58.91774794908558</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627276</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>248.5691704774793</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.805489753489383e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.34647848426539e-12</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.151079231931362e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>862828.4686134469</v>
+        <v>698704.3134985205</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>862828.4686134469</v>
+        <v>870311.3698480474</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>866551.8262988365</v>
+        <v>870311.3698480474</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652473.9856019008</v>
+        <v>840181.943887729</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>870117.31455546</v>
+        <v>870117.3145554598</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>870117.3145554601</v>
+        <v>870117.31455546</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>870117.31455546</v>
+        <v>870117.3145554598</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>884748.6483665236</v>
+        <v>870117.3145554601</v>
       </c>
     </row>
     <row r="13">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93825.78098082152</v>
+        <v>75561.42168517587</v>
       </c>
       <c r="C2" t="n">
+        <v>93825.7809808215</v>
+      </c>
+      <c r="D2" t="n">
         <v>93825.78098082151</v>
       </c>
-      <c r="D2" t="n">
-        <v>93825.78098082148</v>
-      </c>
       <c r="E2" t="n">
-        <v>69137.97812413934</v>
+        <v>89028.04117656982</v>
       </c>
       <c r="F2" t="n">
         <v>92200.07722403665</v>
@@ -26329,31 +26329,31 @@
         <v>92200.07722403666</v>
       </c>
       <c r="H2" t="n">
-        <v>92200.07722403668</v>
+        <v>92200.07722403664</v>
       </c>
       <c r="I2" t="n">
-        <v>92200.07722403668</v>
+        <v>92200.07722403664</v>
       </c>
       <c r="J2" t="n">
-        <v>92200.07722403668</v>
+        <v>92200.07722403665</v>
       </c>
       <c r="K2" t="n">
-        <v>92200.07722403666</v>
+        <v>92200.07722403664</v>
       </c>
       <c r="L2" t="n">
+        <v>92200.07722403664</v>
+      </c>
+      <c r="M2" t="n">
+        <v>93825.78098082145</v>
+      </c>
+      <c r="N2" t="n">
+        <v>93825.78098082152</v>
+      </c>
+      <c r="O2" t="n">
         <v>93825.78098082147</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>93825.78098082147</v>
-      </c>
-      <c r="N2" t="n">
-        <v>93825.78098082151</v>
-      </c>
-      <c r="O2" t="n">
-        <v>93825.78098082152</v>
-      </c>
-      <c r="P2" t="n">
-        <v>93825.78098082157</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>144969.7742714931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>75898.49296044782</v>
       </c>
       <c r="D3" t="n">
-        <v>37592.93764066501</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91465.65199216272</v>
+        <v>164835.5352679185</v>
       </c>
       <c r="F3" t="n">
-        <v>122233.5690936864</v>
+        <v>16812.40227510025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>113183.7314045606</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>60463.06329458976</v>
       </c>
       <c r="L3" t="n">
-        <v>43618.04443367873</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>76340.54196576745</v>
+        <v>150566.2690088499</v>
       </c>
       <c r="N3" t="n">
-        <v>90115.69674436479</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>126352.4519746345</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>163590.6366304551</v>
+        <v>139383.7472389046</v>
       </c>
       <c r="E4" t="n">
-        <v>30836.82613433999</v>
+        <v>39708.16476457266</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991268</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
         <v>41122.95192991271</v>
@@ -26445,19 +26445,19 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>46465.30974654599</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>46465.30974654598</v>
+        <v>46465.30974654597</v>
       </c>
       <c r="N4" t="n">
-        <v>55396.20108640302</v>
+        <v>55396.20108640299</v>
       </c>
       <c r="O4" t="n">
-        <v>55396.20108640302</v>
+        <v>55396.20108640299</v>
       </c>
       <c r="P4" t="n">
-        <v>55396.20108640301</v>
+        <v>55396.20108640299</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>59928.87528014127</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>66782.9010321534</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>51780.62386613143</v>
+        <v>74150.69479362156</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26497,13 +26497,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826067</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
         <v>75515.61472608971</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295354.840871924</v>
+        <v>-255950.5992596023</v>
       </c>
       <c r="C6" t="n">
-        <v>-153163.5402122141</v>
+        <v>-195668.9837802885</v>
       </c>
       <c r="D6" t="n">
-        <v>-174140.694322452</v>
+        <v>-119770.4908198408</v>
       </c>
       <c r="E6" t="n">
-        <v>-104945.1238684948</v>
+        <v>-189734.8927896037</v>
       </c>
       <c r="F6" t="n">
-        <v>-148874.6824053549</v>
+        <v>-43476.73992615147</v>
       </c>
       <c r="G6" t="n">
-        <v>-26641.11331166857</v>
+        <v>-26664.33765105121</v>
       </c>
       <c r="H6" t="n">
-        <v>-26641.11331166855</v>
+        <v>-26664.33765105124</v>
       </c>
       <c r="I6" t="n">
-        <v>-26641.11331166855</v>
+        <v>-26664.33765105124</v>
       </c>
       <c r="J6" t="n">
-        <v>-137655.5786566588</v>
+        <v>-139848.0690556118</v>
       </c>
       <c r="K6" t="n">
-        <v>-26641.11331166857</v>
+        <v>-87127.40094564098</v>
       </c>
       <c r="L6" t="n">
-        <v>-75340.73173766391</v>
+        <v>-26664.33765105124</v>
       </c>
       <c r="M6" t="n">
-        <v>-108063.2292697526</v>
+        <v>-182288.956312835</v>
       </c>
       <c r="N6" t="n">
-        <v>-127201.731576036</v>
+        <v>-37086.03483167118</v>
       </c>
       <c r="O6" t="n">
-        <v>-37086.03483167121</v>
+        <v>-37086.03483167123</v>
       </c>
       <c r="P6" t="n">
-        <v>-37086.03483167115</v>
+        <v>-37086.03483167123</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>545.3174511867335</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>851.6549977982143</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>234.9284421318492</v>
       </c>
       <c r="D4" t="n">
-        <v>121.0215936666292</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>306.3375466114808</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="F4" t="n">
-        <v>426.6055055865311</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>234.9284421318492</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666292</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114808</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>367.928798149509</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>234.9284421318492</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666292</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114808</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6055055865311</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>319.047046322912</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>65.87647255027099</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.9929548971912</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>3.329665100430134</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>147.2153150401801</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>208.2197249473435</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>13.53412882971753</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>287.3649926537461</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>45.66467363656955</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>244.2458196961119</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>170.8626916697542</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>342.3466581770747</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760078</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>432.5867644760077</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>156.4056912624492</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34945,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>545.3174511867335</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>545.3174511867335</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>83.63322340856462</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.3174511867335</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>112.1603739174597</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,16 +35264,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>116.8852847556233</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>545.3174511867335</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.3174511867335</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>51.02597308015487</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>521.3451823745477</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>851.6549977982143</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512938</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36291,13 +36291,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.434224008042</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900421</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,19 +37312,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
@@ -37479,7 +37479,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
         <v>186.127402120901</v>
@@ -37546,10 +37546,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>350.72306039261</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>551.1374990805307</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
         <v>186.127402120901</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38026,10 +38026,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>350.72306039261</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
